--- a/nts.uk/pr/file/nts.uk.pr.file.infra/src/main/resources/report/paymentdata.xlsx
+++ b/nts.uk/pr/file/nts.uk.pr.file.infra/src/main/resources/report/paymentdata.xlsx
@@ -587,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,12 +621,6 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -672,6 +666,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -800,68 +815,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,7 +1221,7 @@
   <dimension ref="B1:AC31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:Q10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -1245,87 +1267,87 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="2:29">
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="2:29">
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="2:29" ht="18" customHeight="1">
-      <c r="B5" s="8" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="2:29" ht="24.75" customHeight="1">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="Q5" s="16" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="Q5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="9" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="2:29" s="24" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="20"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
     </row>
     <row r="7" spans="2:29">
       <c r="B7" s="1"/>
@@ -1356,899 +1378,1079 @@
       <c r="M8" s="3"/>
     </row>
     <row r="10" spans="2:29">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4" t="s">
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4" t="s">
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4" t="s">
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="18"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="5" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5" t="s">
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="5" t="s">
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="5" t="s">
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="5" t="s">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="7"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="18"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4" t="s">
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4" t="s">
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
     </row>
     <row r="13" spans="2:29">
-      <c r="B13" s="18"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="5" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="5" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="5" t="s">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="5" t="s">
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="5" t="s">
+      <c r="V13" s="17"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="5" t="s">
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="7"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="18"/>
     </row>
     <row r="14" spans="2:29">
-      <c r="B14" s="18"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4" t="s">
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4" t="s">
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
     </row>
     <row r="15" spans="2:29">
-      <c r="B15" s="19"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="5" t="s">
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="5" t="s">
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5" t="s">
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="5" t="s">
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="5" t="s">
+      <c r="V15" s="17"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="5" t="s">
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="7"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="18"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4" t="s">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4" t="s">
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4" t="s">
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="18"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="5" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="5" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="5" t="s">
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="5" t="s">
+      <c r="S18" s="17"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="5" t="s">
+      <c r="V18" s="17"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="5" t="s">
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="7"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="18"/>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="18"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4" t="s">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4" t="s">
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4" t="s">
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="18"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="5" t="s">
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5" t="s">
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="5" t="s">
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="5" t="s">
+      <c r="S20" s="17"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="5" t="s">
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="5" t="s">
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="7"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="18"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="18"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4" t="s">
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="s">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4" t="s">
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4" t="s">
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="s">
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="19"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="5" t="s">
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="5" t="s">
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="5" t="s">
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="5" t="s">
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="5" t="s">
+      <c r="V22" s="17"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="5" t="s">
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="7"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="18"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="2:29">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4" t="s">
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4" t="s">
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4" t="s">
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="2:29">
-      <c r="B25" s="18"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="5" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="5" t="s">
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="5" t="s">
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="5" t="s">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="5" t="s">
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="5" t="s">
+      <c r="V25" s="17"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="5" t="s">
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="7"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="18"/>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="18"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4" t="s">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4" t="s">
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4" t="s">
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="19"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="5" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="5" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="5" t="s">
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="5" t="s">
+      <c r="P27" s="17"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="5" t="s">
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="5" t="s">
+      <c r="V27" s="17"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="5" t="s">
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="7"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="18"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4" t="s">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4" t="s">
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4" t="s">
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4" t="s">
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="19"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="5" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="5" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="5" t="s">
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="5" t="s">
+      <c r="P29" s="17"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="5" t="s">
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="5" t="s">
+      <c r="V29" s="17"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="5" t="s">
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="7"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="18"/>
     </row>
     <row r="31" spans="2:29" ht="17.25">
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="O3:W4"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B29"/>
@@ -2273,52 +2475,15 @@
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="O3:W4"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="AA13:AC13"/>
     <mergeCell ref="R13:T13"/>
@@ -2327,96 +2492,13 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="X22:Z22"/>
     <mergeCell ref="U10:W10"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
